--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -132,22 +132,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Gender identity is a Man.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
-    <t>Gender identity is a Woman.</t>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cis Man</t>
+  </si>
+  <si>
+    <t>Gender identity is a cis Man.</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Cis Woman</t>
+  </si>
+  <si>
+    <t>Gender identity is a cis Woman.</t>
   </si>
   <si>
     <t>TM</t>
@@ -186,13 +186,13 @@
     <t>Person has declined to answer about their gender identity.</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Person's gender identity is Other.</t>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Person's gender identity is unknown.</t>
   </si>
 </sst>
 </file>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -314,10 +314,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -314,10 +314,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -314,10 +314,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gender Identity Codes</t>
+    <t>Comprehensive Gender Identity Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The  Gender Identity Codes contains the codes to be used vbai Demographic Questionnaire</t>
+    <t>This code system provides a comprehensive list of gender identity codes for use in demographic questionnaires.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -138,7 +138,7 @@
     <t>Cis Man</t>
   </si>
   <si>
-    <t>Gender identity is a cis Man.</t>
+    <t>Identifies as a cisgender man.</t>
   </si>
   <si>
     <t>CF</t>
@@ -147,7 +147,7 @@
     <t>Cis Woman</t>
   </si>
   <si>
-    <t>Gender identity is a cis Woman.</t>
+    <t>Identifies as a cisgender woman.</t>
   </si>
   <si>
     <t>TM</t>
@@ -156,7 +156,7 @@
     <t>Transgender male/Transman/Female-to-male</t>
   </si>
   <si>
-    <t>Gender identity is Transgender male or Transman or Female-to-Male.</t>
+    <t>Identifies as a transgender male, transman, or female-to-male.</t>
   </si>
   <si>
     <t>TF</t>
@@ -165,7 +165,7 @@
     <t>Transgender female/Transwoman/Male-tofemale</t>
   </si>
   <si>
-    <t>Gender identity is Transgender female or Transwoman or Male-to-female.</t>
+    <t>Identifies as a transgender female, transwoman, or male-to-female.</t>
   </si>
   <si>
     <t>GQ</t>
@@ -174,7 +174,7 @@
     <t>Genderqueer/Non-binary</t>
   </si>
   <si>
-    <t>Gender identity is GenderQueer/Non-binary.</t>
+    <t>Identifies as genderqueer or non-binary.</t>
   </si>
   <si>
     <t>DC</t>
@@ -183,7 +183,7 @@
     <t>Decline to Answer</t>
   </si>
   <si>
-    <t>Person has declined to answer about their gender identity.</t>
+    <t>Chose not to disclose gender identity.</t>
   </si>
   <si>
     <t>UN</t>
@@ -192,7 +192,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Person's gender identity is unknown.</t>
+    <t>Gender identity is not known.</t>
   </si>
 </sst>
 </file>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-gender-identity.xlsx
+++ b/vbai-fhir/CodeSystem-gender-identity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
